--- a/data/trans_bre/P57_AF_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P57_AF_R-Habitat-trans_bre.xlsx
@@ -530,7 +530,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>dukeAdic</t>
+          <t>Población con apoyo afectivo bajo (Duke)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_bre/P57_AF_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P57_AF_R-Habitat-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -910,7 +910,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">

--- a/data/trans_bre/P57_AF_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P57_AF_R-Habitat-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,2</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,58</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,29</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,06</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,4%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,77%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,71%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,1%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,93; 21,85</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,94; 15,53</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,49; 18,94</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,92; 13,74</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,56; 42,39</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,44; 25,55</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,7; 34,93</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,56; 28,78</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,15</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,97</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,3</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,1</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,69%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,7%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,34%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,81%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,27; 4,48</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,45; 12,7</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,53; 8,8</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,42; 10,64</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,04; 6,85</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,53; 24,23</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,95; 12,07</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,72; 22,03</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,11</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,75</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,44</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,41</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,51%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,27%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,66%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,53%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,52; 6,9</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,51; 10,12</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,66; 7,32</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,95; 16,11</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,07; 11,94</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,31; 16,64</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,83; 10,36</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,52; 35,08</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,42</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,51</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,24</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,13</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,5%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,22%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,54%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,24%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,01; 6,4</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,34; 8,42</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,13; 5,16</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,27; 18,17</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,89; 11,71</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,84; 14,46</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,8; 6,55</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,04; 32,71</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,2</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,45</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,48</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,03%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,61%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,08%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,6%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,92; 3,23</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,09; 8,66</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,86; 4,86</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,35; 3,06</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,74; 5,58</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,11; 13,24</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,38; 7,21</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,64; 5,61</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,55</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,89</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,15</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,8</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,9%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,9%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,91%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,97%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,87; 3,01</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,64; 7,37</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,05; 4,17</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,04; 8,36</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,0; 5,09</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,16; 12,19</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,07; 5,69</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,07; 15,61</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P57_AF_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P57_AF_R-Habitat-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>8,2</t>
+          <t>0,4</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2,58</t>
+          <t>6,24</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>7,29</t>
+          <t>4,02</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,06</t>
+          <t>4,82</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>13,4%</t>
+          <t>0,6%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>3,77%</t>
+          <t>10,93%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>11,71%</t>
+          <t>5,45%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,1%</t>
+          <t>9,45%</t>
         </is>
       </c>
     </row>
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,93; 21,85</t>
+          <t>-4,42; 5,75</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-8,94; 15,53</t>
+          <t>0,64; 11,79</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-5,49; 18,94</t>
+          <t>-0,81; 8,62</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-11,92; 13,74</t>
+          <t>-0,3; 10,35</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-5,56; 42,39</t>
+          <t>-6,37; 9,01</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-12,44; 25,55</t>
+          <t>1,03; 21,4</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-7,7; 34,93</t>
+          <t>-1,04; 12,18</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-18,56; 28,78</t>
+          <t>-0,75; 21,56</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-1,15</t>
+          <t>2,11</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>6,97</t>
+          <t>5,75</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>3,3</t>
+          <t>3,44</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>4,1</t>
+          <t>15,4</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-1,69%</t>
+          <t>3,51%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>12,7%</t>
+          <t>9,27%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>4,34%</t>
+          <t>4,66%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>7,81%</t>
+          <t>33,66%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-6,27; 4,48</t>
+          <t>-2,52; 6,9</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,45; 12,7</t>
+          <t>1,51; 10,12</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,53; 8,8</t>
+          <t>-0,66; 7,32</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-1,42; 10,64</t>
+          <t>1,77; 39,73</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-9,04; 6,85</t>
+          <t>-4,07; 11,94</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,53; 24,23</t>
+          <t>2,31; 16,64</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-1,95; 12,07</t>
+          <t>-0,83; 10,36</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-2,72; 22,03</t>
+          <t>2,93; 176,67</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,11</t>
+          <t>1,42</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>5,75</t>
+          <t>2,51</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>3,44</t>
+          <t>1,24</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>6,41</t>
+          <t>6,11</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>3,51%</t>
+          <t>2,5%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>9,27%</t>
+          <t>4,22%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>4,66%</t>
+          <t>1,54%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>11,53%</t>
+          <t>10,34%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,52; 6,9</t>
+          <t>-4,01; 6,4</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,51; 10,12</t>
+          <t>-2,34; 8,42</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,66; 7,32</t>
+          <t>-3,13; 5,16</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,95; 16,11</t>
+          <t>-5,88; 24,79</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-4,07; 11,94</t>
+          <t>-6,89; 11,71</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,31; 16,64</t>
+          <t>-3,84; 14,46</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,83; 10,36</t>
+          <t>-3,8; 6,55</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,52; 35,08</t>
+          <t>-9,69; 45,51</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1,42</t>
+          <t>-1,2</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>2,51</t>
+          <t>4,45</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1,24</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>3,13</t>
+          <t>-3,46</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>2,5%</t>
+          <t>-2,03%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>4,22%</t>
+          <t>6,61%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>1,54%</t>
+          <t>1,08%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>5,24%</t>
+          <t>-6,3%</t>
         </is>
       </c>
     </row>
@@ -968,49 +968,49 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-4,01; 6,4</t>
+          <t>-5,92; 3,23</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,34; 8,42</t>
+          <t>0,09; 8,66</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-3,13; 5,16</t>
+          <t>-3,86; 4,86</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-4,27; 18,17</t>
+          <t>-15,04; 2,24</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-6,89; 11,71</t>
+          <t>-9,74; 5,58</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-3,84; 14,46</t>
+          <t>0,11; 13,24</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-3,8; 6,55</t>
+          <t>-5,38; 7,21</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-7,04; 32,71</t>
+          <t>-27,39; 4,07</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-1,2</t>
+          <t>0,55</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>4,45</t>
+          <t>4,89</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>2,15</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-1,48</t>
+          <t>6,43</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-2,03%</t>
+          <t>0,9%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>6,61%</t>
+          <t>7,9%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>1,08%</t>
+          <t>2,91%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-2,6%</t>
+          <t>12,39%</t>
         </is>
       </c>
     </row>
@@ -1068,154 +1068,54 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-5,92; 3,23</t>
+          <t>-1,87; 3,01</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,09; 8,66</t>
+          <t>2,64; 7,37</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,86; 4,86</t>
+          <t>0,05; 4,17</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-6,35; 3,06</t>
+          <t>0,48; 22,18</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-9,74; 5,58</t>
+          <t>-3,0; 5,09</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,11; 13,24</t>
+          <t>4,16; 12,19</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-5,38; 7,21</t>
+          <t>0,07; 5,69</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-10,64; 5,61</t>
+          <t>1,01; 52,62</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>0,55</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>4,89</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>2,15</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>2,8</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>0,9%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>7,9%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>2,91%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>4,97%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-1,87; 3,01</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>2,64; 7,37</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>0,05; 4,17</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-0,04; 8,36</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-3,0; 5,09</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>4,16; 12,19</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>0,07; 5,69</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-0,07; 15,61</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1224,7 +1124,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P57_AF_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P57_AF_R-Habitat-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,42; 5,75</t>
+          <t>-4,63; 5,6</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,64; 11,79</t>
+          <t>0,67; 11,45</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,81; 8,62</t>
+          <t>-0,63; 8,39</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,3; 10,35</t>
+          <t>-0,31; 9,97</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-6,37; 9,01</t>
+          <t>-6,79; 8,74</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,03; 21,4</t>
+          <t>1,17; 21,84</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-1,04; 12,18</t>
+          <t>-0,84; 11,82</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-0,75; 21,56</t>
+          <t>-0,6; 21,03</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-2,52; 6,9</t>
+          <t>-2,17; 7,25</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,51; 10,12</t>
+          <t>1,63; 10,72</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,66; 7,32</t>
+          <t>-0,47; 7,18</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,77; 39,73</t>
+          <t>1,79; 38,25</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-4,07; 11,94</t>
+          <t>-3,46; 12,58</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,31; 16,64</t>
+          <t>2,54; 18,0</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-0,83; 10,36</t>
+          <t>-0,64; 10,06</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,93; 176,67</t>
+          <t>3,1; 160,91</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,01; 6,4</t>
+          <t>-3,72; 6,63</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,34; 8,42</t>
+          <t>-2,48; 7,91</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,13; 5,16</t>
+          <t>-2,8; 5,19</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,88; 24,79</t>
+          <t>-7,04; 24,08</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-6,89; 11,71</t>
+          <t>-6,31; 12,29</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-3,84; 14,46</t>
+          <t>-4,01; 13,73</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-3,8; 6,55</t>
+          <t>-3,4; 6,6</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-9,69; 45,51</t>
+          <t>-11,65; 43,62</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-5,92; 3,23</t>
+          <t>-5,86; 2,85</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,09; 8,66</t>
+          <t>0,71; 9,08</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-3,86; 4,86</t>
+          <t>-3,15; 5,04</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-15,04; 2,24</t>
+          <t>-14,9; 2,34</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-9,74; 5,58</t>
+          <t>-9,68; 4,99</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,11; 13,24</t>
+          <t>1,02; 14,04</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-5,38; 7,21</t>
+          <t>-4,51; 7,52</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-27,39; 4,07</t>
+          <t>-26,43; 4,29</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,87; 3,01</t>
+          <t>-2,01; 2,99</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,64; 7,37</t>
+          <t>2,51; 7,32</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,05; 4,17</t>
+          <t>0,09; 4,3</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,48; 22,18</t>
+          <t>0,33; 19,88</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,0; 5,09</t>
+          <t>-3,27; 5,02</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>4,16; 12,19</t>
+          <t>3,94; 12,06</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,07; 5,69</t>
+          <t>0,11; 5,9</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1,01; 52,62</t>
+          <t>0,28; 47,02</t>
         </is>
       </c>
     </row>
